--- a/data/trans_dic/P22$notiene-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$notiene-Provincia-trans_dic.xlsx
@@ -740,27 +740,27 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0396215156850977</v>
+        <v>0.04217057101945228</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02904966945679724</v>
+        <v>0.03079266765987861</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.02282304538342722</v>
+        <v>0.02135476783737065</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.02054817816890131</v>
+        <v>0.01986032279699913</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01329420324837767</v>
+        <v>0.01466660537551518</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01006717706930196</v>
+        <v>0.01184366146892819</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -850,13 +850,13 @@
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.01147098504536161</v>
+        <v>0.0103980568995266</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.00567597316699201</v>
+        <v>0.005308786053257822</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01812156739426848</v>
+        <v>0.01624967138426269</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
@@ -950,7 +950,7 @@
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.008851435089423184</v>
+        <v>0.007922279009704367</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.02841200449920884</v>
+        <v>0.02368931753907872</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="inlineStr"/>
@@ -1048,7 +1048,7 @@
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.00940450037611063</v>
+        <v>0.01246718534718017</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1085,7 +1085,7 @@
         <v>0.0038922747274713</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.001940606508476676</v>
+        <v>0.001940606508476675</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0</v>
@@ -1144,28 +1144,28 @@
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.03560609119163603</v>
+        <v>0.0419407857905156</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.02717164266294578</v>
+        <v>0.0241769940621531</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02363168030794168</v>
+        <v>0.01583935656790563</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.009844656555989232</v>
+        <v>0.01080217863422214</v>
       </c>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.01737049032967088</v>
+        <v>0.01387106326585094</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01967843638466995</v>
+        <v>0.01873403581952567</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.006326288877607539</v>
+        <v>0.004287808248961267</v>
       </c>
     </row>
     <row r="19">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0009188289549391113</v>
+        <v>0.0009188289549391114</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.001408532204062393</v>
@@ -1346,30 +1346,30 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01305383129990887</v>
+        <v>0.0157094806549351</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.008100767200274703</v>
+        <v>0.009512006323428537</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.007388284383271624</v>
+        <v>0.006963352283695067</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.005495055216100581</v>
+        <v>0.004603640270733612</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.007060919102497855</v>
+        <v>0.008431079162056201</v>
       </c>
       <c r="L24" s="5" t="inlineStr"/>
       <c r="M24" s="5" t="n">
-        <v>0.003938721548195238</v>
+        <v>0.003961954938925905</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.004678392516195535</v>
+        <v>0.00397066533205151</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.006634241185153352</v>
+        <v>0.006634241185153353</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.001305492919286326</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.001125942832715316</v>
+        <v>0.001132943714004481</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
       <c r="H26" s="5" t="inlineStr"/>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="n">
-        <v>0.00278938057721877</v>
+        <v>0.002688203510632588</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.002914028205606275</v>
+        <v>0.002855255790039515</v>
       </c>
     </row>
     <row r="27">
@@ -1467,33 +1467,33 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.008130951198530243</v>
+        <v>0.008179818248382983</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.009552398211558014</v>
+        <v>0.009479813961602138</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01435644015503127</v>
+        <v>0.01416606434238589</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.00895546568744602</v>
+        <v>0.00879717543438425</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.01301051777581159</v>
+        <v>0.01356860085335843</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.004608458556344573</v>
+        <v>0.00439998683402146</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.003676327926114018</v>
+        <v>0.003963581277583386</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.005031709735677208</v>
+        <v>0.005577001257550616</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01119343604467845</v>
+        <v>0.01072357711109776</v>
       </c>
     </row>
     <row r="28">
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0005020178335551735</v>
+        <v>0.0005055614173955634</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0003529966623905962</v>
+        <v>0.0003519520413960138</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0006948723279783371</v>
+        <v>0.0007210143221238718</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.0003284461166997379</v>
+        <v>0.000325695169496238</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>0</v>
@@ -1570,22 +1570,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.000239454274910001</v>
+        <v>0.0002404616721481113</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0008363908952351344</v>
+        <v>0.0007610016442306122</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0004207252314871573</v>
+        <v>0.0004399630774141163</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0001751618645470115</v>
+        <v>0.0001796426628966159</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0006992570683288394</v>
+        <v>0.0006742385498783047</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0009112473460997364</v>
+        <v>0.000813232716130263</v>
       </c>
     </row>
     <row r="30">
@@ -1596,40 +1596,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.004760955927019834</v>
+        <v>0.004466387015569128</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.002921677187784288</v>
+        <v>0.002925602997997444</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.004587589812335854</v>
+        <v>0.004960928970932939</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.003251560035397403</v>
+        <v>0.003668976090901624</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.002047468957940107</v>
+        <v>0.001816302487953854</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.001684012584879153</v>
+        <v>0.001682962210848899</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.002628525092160147</v>
+        <v>0.002710243421809143</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.00342592607366459</v>
+        <v>0.00334646111117109</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.002525168540737748</v>
+        <v>0.00257846368094145</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.001657895224607754</v>
+        <v>0.001738117953636878</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.002920396423864796</v>
+        <v>0.0028278894863282</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.002892399386484424</v>
+        <v>0.002894287385223187</v>
       </c>
     </row>
     <row r="31">
@@ -1936,27 +1936,27 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10780</v>
+        <v>11474</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8562</v>
+        <v>9076</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6567</v>
+        <v>6144</v>
       </c>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>10951</v>
+        <v>10584</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7737</v>
+        <v>8536</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5854</v>
+        <v>6887</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2090,13 +2090,13 @@
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6000</v>
+        <v>5439</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>5822</v>
+        <v>5445</v>
       </c>
       <c r="N11" s="6" t="inlineStr"/>
     </row>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5778</v>
+        <v>5181</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>5791</v>
+        <v>5183</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>10511</v>
+        <v>8764</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
@@ -2376,7 +2376,7 @@
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>7122</v>
+        <v>9441</v>
       </c>
       <c r="N19" s="6" t="inlineStr"/>
     </row>
@@ -2516,28 +2516,28 @@
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>7521</v>
+        <v>8859</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>5967</v>
+        <v>5309</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5166</v>
+        <v>3462</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2237</v>
+        <v>2454</v>
       </c>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>7508</v>
+        <v>5995</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8458</v>
+        <v>8052</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2739</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="24">
@@ -2806,30 +2806,30 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>8015</v>
+        <v>9646</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>5294</v>
+        <v>6217</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5317</v>
+        <v>5011</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>4237</v>
+        <v>3549</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>8834</v>
+        <v>10548</v>
       </c>
       <c r="L31" s="6" t="inlineStr"/>
       <c r="M31" s="6" t="n">
-        <v>5278</v>
+        <v>5309</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6974</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="32">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       <c r="H34" s="6" t="inlineStr"/>
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="n">
-        <v>2317</v>
+        <v>2233</v>
       </c>
       <c r="K34" s="6" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4746</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="35">
@@ -2971,33 +2971,33 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>6335</v>
+        <v>6373</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7437</v>
+        <v>7381</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11457</v>
+        <v>11306</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7017</v>
+        <v>6893</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>10807</v>
+        <v>11270</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>7028</v>
+        <v>6710</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5893</v>
+        <v>6353</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>8075</v>
+        <v>8950</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>18231</v>
+        <v>17465</v>
       </c>
     </row>
     <row r="36">
@@ -3100,16 +3100,16 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2355</v>
+        <v>2444</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1160</v>
+        <v>1151</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0</v>
@@ -3118,22 +3118,22 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3123</v>
+        <v>2841</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2797</v>
+        <v>2925</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1223</v>
+        <v>1255</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>4845</v>
+        <v>4671</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>6621</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="39">
@@ -3144,40 +3144,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>15569</v>
+        <v>14606</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>10009</v>
+        <v>10023</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>15549</v>
+        <v>16815</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>11487</v>
+        <v>12962</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>6915</v>
+        <v>6134</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>5992</v>
+        <v>5988</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>9302</v>
+        <v>9591</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>12791</v>
+        <v>12494</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>16786</v>
+        <v>17140</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>11579</v>
+        <v>12139</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>20233</v>
+        <v>19592</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>21017</v>
+        <v>21031</v>
       </c>
     </row>
     <row r="40">
